--- a/Excel/7.xlsx
+++ b/Excel/7.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Yuan Zhang\Documents\School\Spring 19\Mobile Computing\Project\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryprouty/Desktop/MUC-Project/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E133A96B-F384-4E92-A9FB-346896BB3FFA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="3540" windowWidth="18735" windowHeight="11910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12720" yWindow="460" windowWidth="16080" windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="22">
   <si>
     <t>Seconds</t>
   </si>
@@ -36,67 +35,19 @@
     <t>Arousal</t>
   </si>
   <si>
-    <t>Taking notes</t>
-  </si>
-  <si>
     <t>Lecture</t>
-  </si>
-  <si>
-    <t>Talking</t>
   </si>
   <si>
     <t>Checking phone</t>
   </si>
   <si>
-    <t>Checking</t>
-  </si>
-  <si>
-    <t>Putting away snack</t>
-  </si>
-  <si>
-    <t>Prof telling joke</t>
-  </si>
-  <si>
     <t>Listening</t>
-  </si>
-  <si>
-    <t>Looking at phone</t>
-  </si>
-  <si>
-    <t>Looking at computer screen</t>
-  </si>
-  <si>
-    <t>Looking around classroom</t>
-  </si>
-  <si>
-    <t>Talking to classmate</t>
-  </si>
-  <si>
-    <t>QnA</t>
   </si>
   <si>
     <t xml:space="preserve">Listening </t>
   </si>
   <si>
-    <t>Rubs eyes</t>
-  </si>
-  <si>
-    <t>Classmate answer question</t>
-  </si>
-  <si>
-    <t>Prof showing picture frame</t>
-  </si>
-  <si>
-    <t>Classmate ask question</t>
-  </si>
-  <si>
     <t>Zoning out</t>
-  </si>
-  <si>
-    <t>Looking at presentation</t>
-  </si>
-  <si>
-    <t>Looking at neighbor's computer screen</t>
   </si>
   <si>
     <t>Stretching</t>
@@ -105,46 +56,7 @@
     <t>Nodding</t>
   </si>
   <si>
-    <t>Looking at professor</t>
-  </si>
-  <si>
-    <t>Example question</t>
-  </si>
-  <si>
-    <t>Thinking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scratching </t>
-  </si>
-  <si>
-    <t>Rubbing eyes</t>
-  </si>
-  <si>
-    <t>Asking question</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Stretch break</t>
-  </si>
-  <si>
     <t>Drinking water</t>
-  </si>
-  <si>
-    <t>Answering question</t>
-  </si>
-  <si>
-    <t>Scratching</t>
-  </si>
-  <si>
-    <t>Looking for paper</t>
-  </si>
-  <si>
-    <t>Prof says joke</t>
-  </si>
-  <si>
-    <t>Prof giving announcement</t>
   </si>
   <si>
     <t>Valence</t>
@@ -152,11 +64,38 @@
   <si>
     <t>Class Activity</t>
   </si>
+  <si>
+    <t>Joke</t>
+  </si>
+  <si>
+    <t>Q &amp; A</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>Writing notes</t>
+  </si>
+  <si>
+    <t>Chatting</t>
+  </si>
+  <si>
+    <t>Fidgeting</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Looking around</t>
+  </si>
+  <si>
+    <t>Raised hand</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -564,17 +503,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F439"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E145" sqref="E145:E153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -582,13 +521,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -600,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -617,20 +556,47 @@
       <c r="A3" s="2">
         <v>10</v>
       </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>20</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>30</v>
       </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -644,26 +610,65 @@
       <c r="A6" s="2">
         <v>40</v>
       </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>50</v>
       </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>60</v>
       </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>70</v>
       </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -677,26 +682,71 @@
       <c r="A10" s="2">
         <v>80</v>
       </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>90</v>
       </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>100</v>
       </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>110</v>
       </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -704,56 +754,155 @@
       <c r="A14" s="2">
         <v>120</v>
       </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>130</v>
       </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>140</v>
       </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>150</v>
       </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>160</v>
       </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>170</v>
       </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>180</v>
       </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>190</v>
       </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>200</v>
       </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -767,8 +916,11 @@
       <c r="A23" s="2">
         <v>210</v>
       </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -782,12 +934,36 @@
       <c r="A24" s="2">
         <v>220</v>
       </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>230</v>
       </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -795,10 +971,10 @@
         <v>240</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -812,20 +988,47 @@
       <c r="A27" s="2">
         <v>250</v>
       </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>260</v>
       </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>270</v>
       </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -834,22 +1037,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>280</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>290</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>300</v>
       </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -858,22 +1088,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>310</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>320</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>330</v>
       </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -882,25 +1139,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>340</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>350</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>360</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -909,12 +1190,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>370</v>
       </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -923,12 +1207,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>380</v>
       </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -937,12 +1224,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>390</v>
       </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -951,12 +1241,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>400</v>
       </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -965,12 +1258,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>410</v>
       </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -979,12 +1275,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>420</v>
       </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -993,12 +1292,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>430</v>
       </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -1007,12 +1309,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>440</v>
       </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -1021,12 +1326,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>450</v>
       </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -1035,12 +1343,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>460</v>
       </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -1049,12 +1360,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>470</v>
       </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -1063,12 +1377,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>480</v>
       </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -1077,12 +1394,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>490</v>
       </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -1091,12 +1411,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>500</v>
       </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -1105,12 +1428,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>510</v>
       </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -1119,12 +1445,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>520</v>
       </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -1133,12 +1462,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>530</v>
       </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -1147,12 +1479,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>540</v>
       </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -1161,12 +1496,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>550</v>
       </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -1175,12 +1513,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>560</v>
       </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
       <c r="C58" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -1189,12 +1530,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>570</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -1203,15 +1547,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>580</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -1220,15 +1564,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>590</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -1237,15 +1581,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>600</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -1254,15 +1598,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>610</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -1271,15 +1615,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>620</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -1288,15 +1632,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>630</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -1305,15 +1649,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>640</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -1322,12 +1666,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>650</v>
       </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -1336,12 +1683,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>660</v>
       </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -1350,12 +1700,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>670</v>
       </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -1364,12 +1717,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>680</v>
       </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -1378,12 +1734,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>690</v>
       </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -1392,12 +1751,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>700</v>
       </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -1406,12 +1768,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>710</v>
       </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -1420,12 +1785,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>720</v>
       </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -1434,12 +1802,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>730</v>
       </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -1448,12 +1819,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>740</v>
       </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -1462,12 +1836,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>750</v>
       </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -1476,12 +1853,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>760</v>
       </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -1490,12 +1870,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>770</v>
       </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -1504,12 +1887,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>780</v>
       </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -1518,12 +1904,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>790</v>
       </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -1532,12 +1921,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>800</v>
       </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
       <c r="C82" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -1546,12 +1938,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>810</v>
       </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
       <c r="C83" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -1560,15 +1955,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>820</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -1577,12 +1972,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>830</v>
       </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -1591,12 +1989,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>840</v>
       </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -1605,12 +2006,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>850</v>
       </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -1619,12 +2023,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>860</v>
       </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -1633,12 +2040,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>870</v>
       </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -1647,12 +2057,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>880</v>
       </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -1661,15 +2074,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>890</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D91">
         <v>3</v>
@@ -1678,12 +2091,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>900</v>
       </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -1692,12 +2108,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>910</v>
       </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D93">
         <v>3</v>
@@ -1706,12 +2125,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>920</v>
       </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
       <c r="C94" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -1720,12 +2142,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>930</v>
       </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
       <c r="C95" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -1734,12 +2159,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>940</v>
       </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
       <c r="C96" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -1748,12 +2176,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>950</v>
       </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
       <c r="C97" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D97">
         <v>3</v>
@@ -1762,12 +2193,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>960</v>
       </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
       <c r="C98" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -1776,15 +2210,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>970</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D99">
         <v>3</v>
@@ -1793,12 +2227,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>980</v>
       </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -1807,12 +2244,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>990</v>
       </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D101">
         <v>3</v>
@@ -1821,12 +2261,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>1000</v>
       </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D102">
         <v>3</v>
@@ -1835,15 +2278,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>1010</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D103">
         <v>3</v>
@@ -1852,12 +2295,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>1020</v>
       </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
       <c r="C104" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -1866,12 +2312,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>1030</v>
       </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
       <c r="C105" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -1880,15 +2329,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>1040</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D106">
         <v>4</v>
@@ -1897,12 +2346,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>1050</v>
       </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -1911,15 +2363,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>1060</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D108">
         <v>3</v>
@@ -1928,12 +2380,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>1070</v>
       </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D109">
         <v>3</v>
@@ -1942,12 +2397,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>1080</v>
       </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D110">
         <v>3</v>
@@ -1956,12 +2414,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>1090</v>
       </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D111">
         <v>3</v>
@@ -1970,12 +2431,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>1100</v>
       </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
       <c r="C112" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D112">
         <v>3</v>
@@ -1984,12 +2448,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>1110</v>
       </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
       <c r="C113" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D113">
         <v>3</v>
@@ -1998,12 +2465,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>1120</v>
       </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
       <c r="C114" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D114">
         <v>3</v>
@@ -2012,12 +2482,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>1130</v>
       </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
       <c r="C115" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -2026,12 +2499,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>1140</v>
       </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D116">
         <v>3</v>
@@ -2040,12 +2516,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>1150</v>
       </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D117">
         <v>3</v>
@@ -2054,12 +2533,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>1160</v>
       </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
       <c r="C118" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D118">
         <v>3</v>
@@ -2068,12 +2550,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>1170</v>
       </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D119">
         <v>3</v>
@@ -2082,12 +2567,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>1180</v>
       </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D120">
         <v>3</v>
@@ -2096,12 +2584,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>1190</v>
       </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -2110,12 +2601,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>1200</v>
       </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D122">
         <v>3</v>
@@ -2124,12 +2618,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>1210</v>
       </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
       <c r="C123" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D123">
         <v>3</v>
@@ -2138,12 +2635,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>1220</v>
       </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
       <c r="C124" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D124">
         <v>3</v>
@@ -2152,12 +2652,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>1230</v>
       </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
       <c r="C125" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D125">
         <v>3</v>
@@ -2166,12 +2669,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>1240</v>
       </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
       <c r="C126" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D126">
         <v>3</v>
@@ -2180,12 +2686,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>1250</v>
       </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
       <c r="C127" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D127">
         <v>3</v>
@@ -2194,12 +2703,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>1260</v>
       </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D128">
         <v>3</v>
@@ -2208,12 +2720,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>1270</v>
       </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D129">
         <v>3</v>
@@ -2222,15 +2737,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>1280</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D130">
         <v>3</v>
@@ -2239,15 +2754,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>1290</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D131">
         <v>3</v>
@@ -2256,12 +2771,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>1300</v>
       </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D132">
         <v>3</v>
@@ -2270,12 +2788,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>1310</v>
       </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D133">
         <v>3</v>
@@ -2284,12 +2805,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>1320</v>
       </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
       <c r="C134" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D134">
         <v>3</v>
@@ -2298,12 +2822,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>1330</v>
       </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D135">
         <v>3</v>
@@ -2312,12 +2839,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>1340</v>
       </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
       <c r="C136" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D136">
         <v>3</v>
@@ -2326,12 +2856,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>1350</v>
       </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
       <c r="C137" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D137">
         <v>3</v>
@@ -2340,12 +2873,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>1360</v>
       </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
       <c r="C138" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D138">
         <v>3</v>
@@ -2354,12 +2890,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>1370</v>
       </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
       <c r="C139" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D139">
         <v>3</v>
@@ -2368,15 +2907,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>1380</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D140">
         <v>3</v>
@@ -2385,15 +2924,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>1390</v>
       </c>
       <c r="B141" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D141">
         <v>3</v>
@@ -2402,12 +2941,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>1400</v>
       </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
       <c r="C142" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D142">
         <v>3</v>
@@ -2416,15 +2958,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>1410</v>
       </c>
       <c r="B143" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C143" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D143">
         <v>3</v>
@@ -2433,15 +2975,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>1420</v>
       </c>
       <c r="B144" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C144" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D144">
         <v>3</v>
@@ -2450,12 +2992,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>1430</v>
       </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D145">
         <v>3</v>
@@ -2464,55 +3009,151 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>1440</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>1450</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>1460</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="E148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>1470</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>1480</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
+      <c r="E150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>1490</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+      <c r="E151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>1500</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+      <c r="E152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>1510</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+      <c r="E153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>1520</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -2521,12 +3162,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>1530</v>
       </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
       <c r="C155" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D155">
         <v>3</v>
@@ -2535,12 +3179,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>1540</v>
       </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
       <c r="C156" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -2549,12 +3196,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>1550</v>
       </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
       <c r="C157" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D157">
         <v>3</v>
@@ -2563,12 +3213,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>1560</v>
       </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
       <c r="C158" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -2577,12 +3230,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>1570</v>
       </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
       <c r="C159" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D159">
         <v>3</v>
@@ -2591,12 +3247,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>1580</v>
       </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
       <c r="C160" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D160">
         <v>3</v>
@@ -2605,15 +3264,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>1590</v>
       </c>
       <c r="B161" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -2622,15 +3281,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>1600</v>
       </c>
       <c r="B162" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D162">
         <v>3</v>
@@ -2639,12 +3298,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>1610</v>
       </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
       <c r="C163" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D163">
         <v>3</v>
@@ -2653,12 +3315,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>1620</v>
       </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
       <c r="C164" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D164">
         <v>3</v>
@@ -2667,12 +3332,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>1630</v>
       </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D165">
         <v>3</v>
@@ -2681,12 +3349,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>1640</v>
       </c>
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
       <c r="C166" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D166">
         <v>3</v>
@@ -2695,12 +3366,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>1650</v>
       </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D167">
         <v>4</v>
@@ -2709,12 +3383,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>1660</v>
       </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
       <c r="C168" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -2723,12 +3400,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>1670</v>
       </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
       <c r="C169" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D169">
         <v>3</v>
@@ -2737,12 +3417,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>1680</v>
       </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
       <c r="C170" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D170">
         <v>3</v>
@@ -2751,12 +3434,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>1690</v>
       </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
       <c r="C171" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D171">
         <v>3</v>
@@ -2765,12 +3451,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>1700</v>
       </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
       <c r="C172" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D172">
         <v>3</v>
@@ -2779,12 +3468,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>1710</v>
       </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
       <c r="C173" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D173">
         <v>3</v>
@@ -2793,12 +3485,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>1720</v>
       </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
       <c r="C174" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D174">
         <v>3</v>
@@ -2807,12 +3502,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>1730</v>
       </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
       <c r="C175" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -2821,12 +3519,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>1740</v>
       </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
       <c r="C176" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D176">
         <v>3</v>
@@ -2835,12 +3536,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>1750</v>
       </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
       <c r="C177" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D177">
         <v>3</v>
@@ -2849,12 +3553,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>1760</v>
       </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
       <c r="C178" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D178">
         <v>3</v>
@@ -2863,12 +3570,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>1770</v>
       </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D179">
         <v>3</v>
@@ -2877,12 +3587,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>1780</v>
       </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
       <c r="C180" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D180">
         <v>3</v>
@@ -2891,15 +3604,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>1790</v>
       </c>
       <c r="B181" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C181" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D181">
         <v>3</v>
@@ -2908,12 +3621,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>1800</v>
       </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
       <c r="C182" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D182">
         <v>3</v>
@@ -2922,12 +3638,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>1810</v>
       </c>
+      <c r="B183" t="s">
+        <v>3</v>
+      </c>
       <c r="C183" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D183">
         <v>3</v>
@@ -2936,12 +3655,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>1820</v>
       </c>
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
       <c r="C184" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D184">
         <v>3</v>
@@ -2950,12 +3672,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>1830</v>
       </c>
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
       <c r="C185" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D185">
         <v>3</v>
@@ -2964,12 +3689,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>1840</v>
       </c>
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
       <c r="C186" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D186">
         <v>3</v>
@@ -2978,12 +3706,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>1850</v>
       </c>
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
       <c r="C187" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D187">
         <v>3</v>
@@ -2992,12 +3723,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>1860</v>
       </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
       <c r="C188" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D188">
         <v>3</v>
@@ -3006,12 +3740,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>1870</v>
       </c>
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
       <c r="C189" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D189">
         <v>3</v>
@@ -3020,15 +3757,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>1880</v>
       </c>
       <c r="B190" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C190" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D190">
         <v>3</v>
@@ -3037,12 +3774,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>1890</v>
       </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
       <c r="C191" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D191">
         <v>3</v>
@@ -3051,12 +3791,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>1900</v>
       </c>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
       <c r="C192" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D192">
         <v>3</v>
@@ -3065,12 +3808,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>1910</v>
       </c>
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
       <c r="C193" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D193">
         <v>3</v>
@@ -3079,12 +3825,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>1920</v>
       </c>
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
       <c r="C194" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D194">
         <v>3</v>
@@ -3093,12 +3842,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>1930</v>
       </c>
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
       <c r="C195" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D195">
         <v>3</v>
@@ -3107,12 +3859,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>1940</v>
       </c>
+      <c r="B196" t="s">
+        <v>3</v>
+      </c>
       <c r="C196" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D196">
         <v>3</v>
@@ -3121,12 +3876,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>1950</v>
       </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
       <c r="C197" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D197">
         <v>3</v>
@@ -3135,12 +3893,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>1960</v>
       </c>
+      <c r="B198" t="s">
+        <v>3</v>
+      </c>
       <c r="C198" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D198">
         <v>3</v>
@@ -3149,12 +3910,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>1970</v>
       </c>
+      <c r="B199" t="s">
+        <v>3</v>
+      </c>
       <c r="C199" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D199">
         <v>3</v>
@@ -3163,12 +3927,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>1980</v>
       </c>
+      <c r="B200" t="s">
+        <v>3</v>
+      </c>
       <c r="C200" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D200">
         <v>3</v>
@@ -3177,12 +3944,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>1990</v>
       </c>
+      <c r="B201" t="s">
+        <v>3</v>
+      </c>
       <c r="C201" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D201">
         <v>3</v>
@@ -3191,12 +3961,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>2000</v>
       </c>
+      <c r="B202" t="s">
+        <v>3</v>
+      </c>
       <c r="C202" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D202">
         <v>3</v>
@@ -3205,12 +3978,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>2010</v>
       </c>
+      <c r="B203" t="s">
+        <v>3</v>
+      </c>
       <c r="C203" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D203">
         <v>3</v>
@@ -3219,12 +3995,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>2020</v>
       </c>
+      <c r="B204" t="s">
+        <v>3</v>
+      </c>
       <c r="C204" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D204">
         <v>3</v>
@@ -3233,12 +4012,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>2030</v>
       </c>
+      <c r="B205" t="s">
+        <v>3</v>
+      </c>
       <c r="C205" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D205">
         <v>3</v>
@@ -3247,12 +4029,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>2040</v>
       </c>
+      <c r="B206" t="s">
+        <v>3</v>
+      </c>
       <c r="C206" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D206">
         <v>3</v>
@@ -3261,12 +4046,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>2050</v>
       </c>
+      <c r="B207" t="s">
+        <v>3</v>
+      </c>
       <c r="C207" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D207">
         <v>3</v>
@@ -3275,12 +4063,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>2060</v>
       </c>
+      <c r="B208" t="s">
+        <v>3</v>
+      </c>
       <c r="C208" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D208">
         <v>3</v>
@@ -3289,12 +4080,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>2070</v>
       </c>
+      <c r="B209" t="s">
+        <v>3</v>
+      </c>
       <c r="C209" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D209">
         <v>3</v>
@@ -3303,12 +4097,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>2080</v>
       </c>
+      <c r="B210" t="s">
+        <v>3</v>
+      </c>
       <c r="C210" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D210">
         <v>3</v>
@@ -3317,12 +4114,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>2090</v>
       </c>
+      <c r="B211" t="s">
+        <v>3</v>
+      </c>
       <c r="C211" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D211">
         <v>3</v>
@@ -3331,12 +4131,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>2100</v>
       </c>
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
       <c r="C212" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D212">
         <v>3</v>
@@ -3345,12 +4148,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>2110</v>
       </c>
+      <c r="B213" t="s">
+        <v>3</v>
+      </c>
       <c r="C213" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D213">
         <v>3</v>
@@ -3359,12 +4165,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>2120</v>
       </c>
+      <c r="B214" t="s">
+        <v>3</v>
+      </c>
       <c r="C214" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D214">
         <v>3</v>
@@ -3373,12 +4182,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>2130</v>
       </c>
+      <c r="B215" t="s">
+        <v>3</v>
+      </c>
       <c r="C215" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D215">
         <v>3</v>
@@ -3387,12 +4199,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>2140</v>
       </c>
+      <c r="B216" t="s">
+        <v>3</v>
+      </c>
       <c r="C216" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D216">
         <v>3</v>
@@ -3401,12 +4216,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>2150</v>
       </c>
+      <c r="B217" t="s">
+        <v>3</v>
+      </c>
       <c r="C217" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D217">
         <v>3</v>
@@ -3415,12 +4233,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>2160</v>
       </c>
+      <c r="B218" t="s">
+        <v>3</v>
+      </c>
       <c r="C218" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D218">
         <v>3</v>
@@ -3429,12 +4250,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>2170</v>
       </c>
+      <c r="B219" t="s">
+        <v>3</v>
+      </c>
       <c r="C219" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D219">
         <v>3</v>
@@ -3443,12 +4267,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>2180</v>
       </c>
+      <c r="B220" t="s">
+        <v>3</v>
+      </c>
       <c r="C220" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D220">
         <v>3</v>
@@ -3457,12 +4284,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>2190</v>
       </c>
+      <c r="B221" t="s">
+        <v>3</v>
+      </c>
       <c r="C221" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D221">
         <v>3</v>
@@ -3471,12 +4301,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>2200</v>
       </c>
+      <c r="B222" t="s">
+        <v>3</v>
+      </c>
       <c r="C222" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D222">
         <v>3</v>
@@ -3485,12 +4318,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>2210</v>
       </c>
+      <c r="B223" t="s">
+        <v>3</v>
+      </c>
       <c r="C223" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D223">
         <v>3</v>
@@ -3499,12 +4335,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>2220</v>
       </c>
+      <c r="B224" t="s">
+        <v>3</v>
+      </c>
       <c r="C224" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D224">
         <v>3</v>
@@ -3513,12 +4352,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>2230</v>
       </c>
+      <c r="B225" t="s">
+        <v>3</v>
+      </c>
       <c r="C225" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D225">
         <v>3</v>
@@ -3527,12 +4369,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>2240</v>
       </c>
+      <c r="B226" t="s">
+        <v>3</v>
+      </c>
       <c r="C226" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D226">
         <v>3</v>
@@ -3541,12 +4386,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>2250</v>
       </c>
+      <c r="B227" t="s">
+        <v>3</v>
+      </c>
       <c r="C227" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D227">
         <v>3</v>
@@ -3555,12 +4403,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>2260</v>
       </c>
+      <c r="B228" t="s">
+        <v>3</v>
+      </c>
       <c r="C228" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D228">
         <v>3</v>
@@ -3569,12 +4420,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>2270</v>
       </c>
+      <c r="B229" t="s">
+        <v>3</v>
+      </c>
       <c r="C229" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D229">
         <v>3</v>
@@ -3583,12 +4437,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>2280</v>
       </c>
+      <c r="B230" t="s">
+        <v>3</v>
+      </c>
       <c r="C230" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D230">
         <v>3</v>
@@ -3597,12 +4454,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>2290</v>
       </c>
+      <c r="B231" t="s">
+        <v>3</v>
+      </c>
       <c r="C231" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D231">
         <v>3</v>
@@ -3611,12 +4471,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>2300</v>
       </c>
+      <c r="B232" t="s">
+        <v>3</v>
+      </c>
       <c r="C232" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D232">
         <v>3</v>
@@ -3625,12 +4488,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>2310</v>
       </c>
+      <c r="B233" t="s">
+        <v>3</v>
+      </c>
       <c r="C233" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D233">
         <v>3</v>
@@ -3639,12 +4505,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>2320</v>
       </c>
+      <c r="B234" t="s">
+        <v>3</v>
+      </c>
       <c r="C234" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D234">
         <v>3</v>
@@ -3653,12 +4522,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>2330</v>
       </c>
+      <c r="B235" t="s">
+        <v>3</v>
+      </c>
       <c r="C235" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D235">
         <v>3</v>
@@ -3667,12 +4539,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>2340</v>
       </c>
+      <c r="B236" t="s">
+        <v>3</v>
+      </c>
       <c r="C236" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D236">
         <v>4</v>
@@ -3681,12 +4556,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>2350</v>
       </c>
+      <c r="B237" t="s">
+        <v>3</v>
+      </c>
       <c r="C237" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D237">
         <v>3</v>
@@ -3695,12 +4573,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>2360</v>
       </c>
+      <c r="B238" t="s">
+        <v>3</v>
+      </c>
       <c r="C238" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D238">
         <v>3</v>
@@ -3709,12 +4590,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>2370</v>
       </c>
+      <c r="B239" t="s">
+        <v>3</v>
+      </c>
       <c r="C239" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D239">
         <v>3</v>
@@ -3723,12 +4607,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>2380</v>
       </c>
+      <c r="B240" t="s">
+        <v>3</v>
+      </c>
       <c r="C240" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D240">
         <v>3</v>
@@ -3737,12 +4624,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>2390</v>
       </c>
+      <c r="B241" t="s">
+        <v>3</v>
+      </c>
       <c r="C241" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D241">
         <v>3</v>
@@ -3751,12 +4641,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>2400</v>
       </c>
+      <c r="B242" t="s">
+        <v>3</v>
+      </c>
       <c r="C242" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D242">
         <v>3</v>
@@ -3765,12 +4658,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>2410</v>
       </c>
+      <c r="B243" t="s">
+        <v>3</v>
+      </c>
       <c r="C243" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D243">
         <v>3</v>
@@ -3779,12 +4675,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>2420</v>
       </c>
+      <c r="B244" t="s">
+        <v>3</v>
+      </c>
       <c r="C244" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D244">
         <v>3</v>
@@ -3793,12 +4692,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>2430</v>
       </c>
+      <c r="B245" t="s">
+        <v>3</v>
+      </c>
       <c r="C245" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D245">
         <v>3</v>
@@ -3807,12 +4709,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>2440</v>
       </c>
+      <c r="B246" t="s">
+        <v>3</v>
+      </c>
       <c r="C246" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D246">
         <v>3</v>
@@ -3821,12 +4726,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>2450</v>
       </c>
+      <c r="B247" t="s">
+        <v>3</v>
+      </c>
       <c r="C247" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D247">
         <v>3</v>
@@ -3835,12 +4743,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>2460</v>
       </c>
+      <c r="B248" t="s">
+        <v>3</v>
+      </c>
       <c r="C248" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D248">
         <v>3</v>
@@ -3849,12 +4760,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>2470</v>
       </c>
+      <c r="B249" t="s">
+        <v>3</v>
+      </c>
       <c r="C249" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D249">
         <v>3</v>
@@ -3863,12 +4777,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>2480</v>
       </c>
+      <c r="B250" t="s">
+        <v>3</v>
+      </c>
       <c r="C250" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D250">
         <v>3</v>
@@ -3877,12 +4794,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>2490</v>
       </c>
+      <c r="B251" t="s">
+        <v>3</v>
+      </c>
       <c r="C251" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D251">
         <v>3</v>
@@ -3891,15 +4811,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>2500</v>
       </c>
       <c r="B252" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C252" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D252">
         <v>3</v>
@@ -3908,12 +4828,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>2510</v>
       </c>
+      <c r="B253" t="s">
+        <v>3</v>
+      </c>
       <c r="C253" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D253">
         <v>3</v>
@@ -3922,12 +4845,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>2520</v>
       </c>
+      <c r="B254" t="s">
+        <v>3</v>
+      </c>
       <c r="C254" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D254">
         <v>3</v>
@@ -3936,12 +4862,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>2530</v>
       </c>
+      <c r="B255" t="s">
+        <v>3</v>
+      </c>
       <c r="C255" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D255">
         <v>3</v>
@@ -3950,12 +4879,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>2540</v>
       </c>
+      <c r="B256" t="s">
+        <v>3</v>
+      </c>
       <c r="C256" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D256">
         <v>3</v>
@@ -3964,12 +4896,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>2550</v>
       </c>
+      <c r="B257" t="s">
+        <v>3</v>
+      </c>
       <c r="C257" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D257">
         <v>3</v>
@@ -3978,12 +4913,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>2560</v>
       </c>
+      <c r="B258" t="s">
+        <v>3</v>
+      </c>
       <c r="C258" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D258">
         <v>3</v>
@@ -3992,12 +4930,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>2570</v>
       </c>
+      <c r="B259" t="s">
+        <v>3</v>
+      </c>
       <c r="C259" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D259">
         <v>3</v>
@@ -4006,15 +4947,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>2580</v>
       </c>
       <c r="B260" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C260" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D260">
         <v>3</v>
@@ -4023,12 +4964,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>2590</v>
       </c>
+      <c r="B261" t="s">
+        <v>3</v>
+      </c>
       <c r="C261" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D261">
         <v>3</v>
@@ -4037,12 +4981,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>2600</v>
       </c>
+      <c r="B262" t="s">
+        <v>3</v>
+      </c>
       <c r="C262" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D262">
         <v>3</v>
@@ -4051,12 +4998,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>2610</v>
       </c>
+      <c r="B263" t="s">
+        <v>3</v>
+      </c>
       <c r="C263" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D263">
         <v>3</v>
@@ -4065,12 +5015,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>2620</v>
       </c>
+      <c r="B264" t="s">
+        <v>3</v>
+      </c>
       <c r="C264" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D264">
         <v>3</v>
@@ -4079,12 +5032,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>2630</v>
       </c>
+      <c r="B265" t="s">
+        <v>3</v>
+      </c>
       <c r="C265" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D265">
         <v>3</v>
@@ -4093,12 +5049,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>2640</v>
       </c>
+      <c r="B266" t="s">
+        <v>3</v>
+      </c>
       <c r="C266" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D266">
         <v>3</v>
@@ -4107,12 +5066,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>2650</v>
       </c>
+      <c r="B267" t="s">
+        <v>3</v>
+      </c>
       <c r="C267" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D267">
         <v>3</v>
@@ -4121,12 +5083,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>2660</v>
       </c>
+      <c r="B268" t="s">
+        <v>3</v>
+      </c>
       <c r="C268" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D268">
         <v>3</v>
@@ -4135,12 +5100,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>2670</v>
       </c>
+      <c r="B269" t="s">
+        <v>3</v>
+      </c>
       <c r="C269" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D269">
         <v>3</v>
@@ -4149,12 +5117,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>2680</v>
       </c>
+      <c r="B270" t="s">
+        <v>3</v>
+      </c>
       <c r="C270" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D270">
         <v>3</v>
@@ -4163,12 +5134,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>2690</v>
       </c>
+      <c r="B271" t="s">
+        <v>3</v>
+      </c>
       <c r="C271" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D271">
         <v>3</v>
@@ -4177,12 +5151,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>2700</v>
       </c>
+      <c r="B272" t="s">
+        <v>3</v>
+      </c>
       <c r="C272" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D272">
         <v>3</v>
@@ -4191,12 +5168,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>2710</v>
       </c>
+      <c r="B273" t="s">
+        <v>3</v>
+      </c>
       <c r="C273" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D273">
         <v>3</v>
@@ -4205,12 +5185,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>2720</v>
       </c>
+      <c r="B274" t="s">
+        <v>3</v>
+      </c>
       <c r="C274" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D274">
         <v>3</v>
@@ -4219,15 +5202,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>2730</v>
       </c>
       <c r="B275" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C275" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D275">
         <v>3</v>
@@ -4236,15 +5219,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>2740</v>
       </c>
       <c r="B276" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C276" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D276">
         <v>3</v>
@@ -4253,12 +5236,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>2750</v>
       </c>
+      <c r="B277" t="s">
+        <v>3</v>
+      </c>
       <c r="C277" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D277">
         <v>3</v>
@@ -4267,12 +5253,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>2760</v>
       </c>
+      <c r="B278" t="s">
+        <v>3</v>
+      </c>
       <c r="C278" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D278">
         <v>3</v>
@@ -4281,12 +5270,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>2770</v>
       </c>
+      <c r="B279" t="s">
+        <v>3</v>
+      </c>
       <c r="C279" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D279">
         <v>3</v>
@@ -4295,12 +5287,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>2780</v>
       </c>
+      <c r="B280" t="s">
+        <v>3</v>
+      </c>
       <c r="C280" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D280">
         <v>3</v>
@@ -4309,12 +5304,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>2790</v>
       </c>
+      <c r="B281" t="s">
+        <v>3</v>
+      </c>
       <c r="C281" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D281">
         <v>3</v>
@@ -4323,12 +5321,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>2800</v>
       </c>
+      <c r="B282" t="s">
+        <v>3</v>
+      </c>
       <c r="C282" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D282">
         <v>3</v>
@@ -4337,12 +5338,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>2810</v>
       </c>
+      <c r="B283" t="s">
+        <v>3</v>
+      </c>
       <c r="C283" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D283">
         <v>3</v>
@@ -4351,12 +5355,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>2820</v>
       </c>
+      <c r="B284" t="s">
+        <v>3</v>
+      </c>
       <c r="C284" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D284">
         <v>3</v>
@@ -4365,12 +5372,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>2830</v>
       </c>
+      <c r="B285" t="s">
+        <v>3</v>
+      </c>
       <c r="C285" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D285">
         <v>3</v>
@@ -4379,12 +5389,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>2840</v>
       </c>
+      <c r="B286" t="s">
+        <v>3</v>
+      </c>
       <c r="C286" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D286">
         <v>3</v>
@@ -4393,12 +5406,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>2850</v>
       </c>
+      <c r="B287" t="s">
+        <v>3</v>
+      </c>
       <c r="C287" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D287">
         <v>3</v>
@@ -4407,12 +5423,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>2860</v>
       </c>
+      <c r="B288" t="s">
+        <v>3</v>
+      </c>
       <c r="C288" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D288">
         <v>3</v>
@@ -4421,12 +5440,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>2870</v>
       </c>
+      <c r="B289" t="s">
+        <v>3</v>
+      </c>
       <c r="C289" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D289">
         <v>3</v>
@@ -4435,12 +5457,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>2880</v>
       </c>
+      <c r="B290" t="s">
+        <v>3</v>
+      </c>
       <c r="C290" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D290">
         <v>3</v>
@@ -4449,12 +5474,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>2890</v>
       </c>
+      <c r="B291" t="s">
+        <v>3</v>
+      </c>
       <c r="C291" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D291">
         <v>3</v>
@@ -4463,12 +5491,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>2900</v>
       </c>
+      <c r="B292" t="s">
+        <v>3</v>
+      </c>
       <c r="C292" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D292">
         <v>3</v>
@@ -4477,12 +5508,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>2910</v>
       </c>
+      <c r="B293" t="s">
+        <v>3</v>
+      </c>
       <c r="C293" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D293">
         <v>3</v>
@@ -4491,12 +5525,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>2920</v>
       </c>
+      <c r="B294" t="s">
+        <v>3</v>
+      </c>
       <c r="C294" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D294">
         <v>3</v>
@@ -4505,12 +5542,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>2930</v>
       </c>
+      <c r="B295" t="s">
+        <v>3</v>
+      </c>
       <c r="C295" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D295">
         <v>3</v>
@@ -4519,12 +5559,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>2940</v>
       </c>
+      <c r="B296" t="s">
+        <v>3</v>
+      </c>
       <c r="C296" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D296">
         <v>3</v>
@@ -4533,12 +5576,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>2950</v>
       </c>
+      <c r="B297" t="s">
+        <v>3</v>
+      </c>
       <c r="C297" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D297">
         <v>3</v>
@@ -4547,12 +5593,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>2960</v>
       </c>
+      <c r="B298" t="s">
+        <v>3</v>
+      </c>
       <c r="C298" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D298">
         <v>3</v>
@@ -4561,12 +5610,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>2970</v>
       </c>
+      <c r="B299" t="s">
+        <v>3</v>
+      </c>
       <c r="C299" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D299">
         <v>3</v>
@@ -4575,12 +5627,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>2980</v>
       </c>
+      <c r="B300" t="s">
+        <v>3</v>
+      </c>
       <c r="C300" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D300">
         <v>3</v>
@@ -4589,12 +5644,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>2990</v>
       </c>
+      <c r="B301" t="s">
+        <v>3</v>
+      </c>
       <c r="C301" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D301">
         <v>3</v>
@@ -4603,12 +5661,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>3000</v>
       </c>
+      <c r="B302" t="s">
+        <v>3</v>
+      </c>
       <c r="C302" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D302">
         <v>3</v>
@@ -4617,12 +5678,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>3010</v>
       </c>
+      <c r="B303" t="s">
+        <v>3</v>
+      </c>
       <c r="C303" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D303">
         <v>3</v>
@@ -4631,12 +5695,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>3020</v>
       </c>
+      <c r="B304" t="s">
+        <v>3</v>
+      </c>
       <c r="C304" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D304">
         <v>3</v>
@@ -4645,12 +5712,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>3030</v>
       </c>
+      <c r="B305" t="s">
+        <v>3</v>
+      </c>
       <c r="C305" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D305">
         <v>3</v>
@@ -4659,12 +5729,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>3040</v>
       </c>
+      <c r="B306" t="s">
+        <v>3</v>
+      </c>
       <c r="C306" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D306">
         <v>3</v>
@@ -4673,15 +5746,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>3050</v>
       </c>
       <c r="B307" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C307" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D307">
         <v>3</v>
@@ -4690,120 +5763,246 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>3060</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>15</v>
+      </c>
+      <c r="C308" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>3070</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>15</v>
+      </c>
+      <c r="C309" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>3080</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>15</v>
+      </c>
+      <c r="C310" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>3090</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>15</v>
+      </c>
+      <c r="C311" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>3100</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>15</v>
+      </c>
+      <c r="C312" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>3110</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>15</v>
+      </c>
+      <c r="C313" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>3120</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>15</v>
+      </c>
+      <c r="C314" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>3130</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>15</v>
+      </c>
+      <c r="C315" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>3140</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>15</v>
+      </c>
+      <c r="C316" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>3150</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>15</v>
+      </c>
+      <c r="C317" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>3160</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>15</v>
+      </c>
+      <c r="C318" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>3170</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>15</v>
+      </c>
+      <c r="C319" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>3180</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>15</v>
+      </c>
+      <c r="C320" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>3190</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>15</v>
+      </c>
+      <c r="C321" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>3200</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>15</v>
+      </c>
+      <c r="C322" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>3210</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>15</v>
+      </c>
+      <c r="C323" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>3220</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>15</v>
+      </c>
+      <c r="C324" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>3230</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>15</v>
+      </c>
+      <c r="C325" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>3240</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>15</v>
+      </c>
+      <c r="C326" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>3250</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>15</v>
+      </c>
+      <c r="C327" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>3260</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>15</v>
+      </c>
+      <c r="C328" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>3270</v>
       </c>
       <c r="B329" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C329" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D329">
         <v>3</v>
@@ -4812,12 +6011,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>3280</v>
       </c>
+      <c r="B330" t="s">
+        <v>3</v>
+      </c>
       <c r="C330" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D330">
         <v>3</v>
@@ -4826,12 +6028,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>3290</v>
       </c>
+      <c r="B331" t="s">
+        <v>3</v>
+      </c>
       <c r="C331" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D331">
         <v>3</v>
@@ -4840,12 +6045,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>3300</v>
       </c>
+      <c r="B332" t="s">
+        <v>3</v>
+      </c>
       <c r="C332" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D332">
         <v>3</v>
@@ -4854,12 +6062,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>3310</v>
       </c>
+      <c r="B333" t="s">
+        <v>3</v>
+      </c>
       <c r="C333" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D333">
         <v>3</v>
@@ -4868,12 +6079,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>3320</v>
       </c>
+      <c r="B334" t="s">
+        <v>3</v>
+      </c>
       <c r="C334" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D334">
         <v>3</v>
@@ -4882,12 +6096,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>3330</v>
       </c>
+      <c r="B335" t="s">
+        <v>3</v>
+      </c>
       <c r="C335" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D335">
         <v>3</v>
@@ -4896,12 +6113,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>3340</v>
       </c>
+      <c r="B336" t="s">
+        <v>3</v>
+      </c>
       <c r="C336" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D336">
         <v>3</v>
@@ -4910,12 +6130,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>3350</v>
       </c>
+      <c r="B337" t="s">
+        <v>3</v>
+      </c>
       <c r="C337" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D337">
         <v>3</v>
@@ -4924,15 +6147,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>3360</v>
       </c>
       <c r="B338" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C338" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D338">
         <v>3</v>
@@ -4941,12 +6164,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>3370</v>
       </c>
+      <c r="B339" t="s">
+        <v>3</v>
+      </c>
       <c r="C339" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D339">
         <v>3</v>
@@ -4955,12 +6181,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>3380</v>
       </c>
+      <c r="B340" t="s">
+        <v>3</v>
+      </c>
       <c r="C340" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D340">
         <v>3</v>
@@ -4969,15 +6198,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>3390</v>
       </c>
       <c r="B341" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C341" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D341">
         <v>3</v>
@@ -4986,12 +6215,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>3400</v>
       </c>
+      <c r="B342" t="s">
+        <v>3</v>
+      </c>
       <c r="C342" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D342">
         <v>3</v>
@@ -5000,12 +6232,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>3410</v>
       </c>
+      <c r="B343" t="s">
+        <v>3</v>
+      </c>
       <c r="C343" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D343">
         <v>3</v>
@@ -5014,12 +6249,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>3420</v>
       </c>
+      <c r="B344" t="s">
+        <v>3</v>
+      </c>
       <c r="C344" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D344">
         <v>3</v>
@@ -5028,12 +6266,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>3430</v>
       </c>
+      <c r="B345" t="s">
+        <v>3</v>
+      </c>
       <c r="C345" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D345">
         <v>3</v>
@@ -5042,12 +6283,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>3440</v>
       </c>
+      <c r="B346" t="s">
+        <v>3</v>
+      </c>
       <c r="C346" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D346">
         <v>3</v>
@@ -5056,12 +6300,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>3450</v>
       </c>
+      <c r="B347" t="s">
+        <v>3</v>
+      </c>
       <c r="C347" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D347">
         <v>3</v>
@@ -5070,12 +6317,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>3460</v>
       </c>
+      <c r="B348" t="s">
+        <v>3</v>
+      </c>
       <c r="C348" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D348">
         <v>3</v>
@@ -5084,12 +6334,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>3470</v>
       </c>
+      <c r="B349" t="s">
+        <v>3</v>
+      </c>
       <c r="C349" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D349">
         <v>3</v>
@@ -5098,12 +6351,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>3480</v>
       </c>
+      <c r="B350" t="s">
+        <v>3</v>
+      </c>
       <c r="C350" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D350">
         <v>3</v>
@@ -5112,12 +6368,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>3490</v>
       </c>
+      <c r="B351" t="s">
+        <v>3</v>
+      </c>
       <c r="C351" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D351">
         <v>3</v>
@@ -5126,12 +6385,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>3500</v>
       </c>
+      <c r="B352" t="s">
+        <v>3</v>
+      </c>
       <c r="C352" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D352">
         <v>3</v>
@@ -5140,12 +6402,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>3510</v>
       </c>
+      <c r="B353" t="s">
+        <v>3</v>
+      </c>
       <c r="C353" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D353">
         <v>3</v>
@@ -5154,12 +6419,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>3520</v>
       </c>
+      <c r="B354" t="s">
+        <v>3</v>
+      </c>
       <c r="C354" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D354">
         <v>3</v>
@@ -5168,12 +6436,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>3530</v>
       </c>
+      <c r="B355" t="s">
+        <v>3</v>
+      </c>
       <c r="C355" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D355">
         <v>3</v>
@@ -5182,12 +6453,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>3540</v>
       </c>
+      <c r="B356" t="s">
+        <v>3</v>
+      </c>
       <c r="C356" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D356">
         <v>3</v>
@@ -5196,12 +6470,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>3550</v>
       </c>
+      <c r="B357" t="s">
+        <v>3</v>
+      </c>
       <c r="C357" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D357">
         <v>3</v>
@@ -5210,12 +6487,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>3560</v>
       </c>
+      <c r="B358" t="s">
+        <v>3</v>
+      </c>
       <c r="C358" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D358">
         <v>3</v>
@@ -5224,12 +6504,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>3570</v>
       </c>
+      <c r="B359" t="s">
+        <v>3</v>
+      </c>
       <c r="C359" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D359">
         <v>3</v>
@@ -5238,12 +6521,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>3580</v>
       </c>
+      <c r="B360" t="s">
+        <v>3</v>
+      </c>
       <c r="C360" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D360">
         <v>3</v>
@@ -5252,12 +6538,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>3590</v>
       </c>
+      <c r="B361" t="s">
+        <v>3</v>
+      </c>
       <c r="C361" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D361">
         <v>3</v>
@@ -5266,12 +6555,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>3600</v>
       </c>
+      <c r="B362" t="s">
+        <v>3</v>
+      </c>
       <c r="C362" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D362">
         <v>3</v>
@@ -5280,12 +6572,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>3610</v>
       </c>
+      <c r="B363" t="s">
+        <v>3</v>
+      </c>
       <c r="C363" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D363">
         <v>3</v>
@@ -5294,12 +6589,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>3620</v>
       </c>
+      <c r="B364" t="s">
+        <v>3</v>
+      </c>
       <c r="C364" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D364">
         <v>3</v>
@@ -5308,12 +6606,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>3630</v>
       </c>
+      <c r="B365" t="s">
+        <v>3</v>
+      </c>
       <c r="C365" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D365">
         <v>3</v>
@@ -5322,12 +6623,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>3640</v>
       </c>
+      <c r="B366" t="s">
+        <v>3</v>
+      </c>
       <c r="C366" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D366">
         <v>3</v>
@@ -5336,15 +6640,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>3650</v>
       </c>
       <c r="B367" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C367" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D367">
         <v>4</v>
@@ -5353,15 +6657,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>3660</v>
       </c>
       <c r="B368" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C368" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D368">
         <v>3</v>
@@ -5370,12 +6674,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>3670</v>
       </c>
+      <c r="B369" t="s">
+        <v>3</v>
+      </c>
       <c r="C369" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D369">
         <v>3</v>
@@ -5384,12 +6691,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>3680</v>
       </c>
+      <c r="B370" t="s">
+        <v>3</v>
+      </c>
       <c r="C370" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D370">
         <v>3</v>
@@ -5398,12 +6708,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>3690</v>
       </c>
+      <c r="B371" t="s">
+        <v>3</v>
+      </c>
       <c r="C371" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D371">
         <v>3</v>
@@ -5412,12 +6725,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>3700</v>
       </c>
+      <c r="B372" t="s">
+        <v>3</v>
+      </c>
       <c r="C372" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D372">
         <v>3</v>
@@ -5426,12 +6742,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>3710</v>
       </c>
+      <c r="B373" t="s">
+        <v>3</v>
+      </c>
       <c r="C373" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D373">
         <v>3</v>
@@ -5440,12 +6759,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>3720</v>
       </c>
+      <c r="B374" t="s">
+        <v>3</v>
+      </c>
       <c r="C374" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D374">
         <v>3</v>
@@ -5454,15 +6776,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>3730</v>
       </c>
       <c r="B375" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C375" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D375">
         <v>3</v>
@@ -5471,12 +6793,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>3740</v>
       </c>
+      <c r="B376" t="s">
+        <v>3</v>
+      </c>
       <c r="C376" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D376">
         <v>3</v>
@@ -5485,12 +6810,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>3750</v>
       </c>
+      <c r="B377" t="s">
+        <v>3</v>
+      </c>
       <c r="C377" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D377">
         <v>3</v>
@@ -5499,15 +6827,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>3760</v>
       </c>
       <c r="B378" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C378" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D378">
         <v>3</v>
@@ -5516,12 +6844,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>3770</v>
       </c>
+      <c r="B379" t="s">
+        <v>3</v>
+      </c>
       <c r="C379" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D379">
         <v>3</v>
@@ -5530,15 +6861,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>3780</v>
       </c>
       <c r="B380" t="s">
+        <v>14</v>
+      </c>
+      <c r="C380" t="s">
         <v>20</v>
-      </c>
-      <c r="C380" t="s">
-        <v>23</v>
       </c>
       <c r="D380">
         <v>3</v>
@@ -5547,12 +6878,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>3790</v>
       </c>
+      <c r="B381" t="s">
+        <v>3</v>
+      </c>
       <c r="C381" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D381">
         <v>3</v>
@@ -5561,12 +6895,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>3800</v>
       </c>
+      <c r="B382" t="s">
+        <v>3</v>
+      </c>
       <c r="C382" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D382">
         <v>3</v>
@@ -5575,12 +6912,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>3810</v>
       </c>
+      <c r="B383" t="s">
+        <v>3</v>
+      </c>
       <c r="C383" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D383">
         <v>3</v>
@@ -5589,12 +6929,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>3820</v>
       </c>
+      <c r="B384" t="s">
+        <v>3</v>
+      </c>
       <c r="C384" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D384">
         <v>3</v>
@@ -5603,15 +6946,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>3830</v>
       </c>
       <c r="B385" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C385" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D385">
         <v>4</v>
@@ -5620,12 +6963,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>3840</v>
       </c>
+      <c r="B386" t="s">
+        <v>3</v>
+      </c>
       <c r="C386" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D386">
         <v>3</v>
@@ -5634,12 +6980,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>3850</v>
       </c>
+      <c r="B387" t="s">
+        <v>3</v>
+      </c>
       <c r="C387" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D387">
         <v>3</v>
@@ -5648,12 +6997,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>3860</v>
       </c>
+      <c r="B388" t="s">
+        <v>3</v>
+      </c>
       <c r="C388" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D388">
         <v>3</v>
@@ -5662,12 +7014,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>3870</v>
       </c>
+      <c r="B389" t="s">
+        <v>3</v>
+      </c>
       <c r="C389" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D389">
         <v>3</v>
@@ -5676,12 +7031,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>3880</v>
       </c>
+      <c r="B390" t="s">
+        <v>3</v>
+      </c>
       <c r="C390" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D390">
         <v>3</v>
@@ -5690,12 +7048,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>3890</v>
       </c>
+      <c r="B391" t="s">
+        <v>3</v>
+      </c>
       <c r="C391" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D391">
         <v>3</v>
@@ -5704,12 +7065,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>3900</v>
       </c>
+      <c r="B392" t="s">
+        <v>3</v>
+      </c>
       <c r="C392" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D392">
         <v>3</v>
@@ -5718,12 +7082,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>3910</v>
       </c>
+      <c r="B393" t="s">
+        <v>3</v>
+      </c>
       <c r="C393" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D393">
         <v>3</v>
@@ -5732,12 +7099,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>3920</v>
       </c>
+      <c r="B394" t="s">
+        <v>3</v>
+      </c>
       <c r="C394" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D394">
         <v>3</v>
@@ -5746,12 +7116,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>3930</v>
       </c>
+      <c r="B395" t="s">
+        <v>3</v>
+      </c>
       <c r="C395" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D395">
         <v>3</v>
@@ -5760,12 +7133,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>3940</v>
       </c>
+      <c r="B396" t="s">
+        <v>3</v>
+      </c>
       <c r="C396" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D396">
         <v>3</v>
@@ -5774,12 +7150,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>3950</v>
       </c>
+      <c r="B397" t="s">
+        <v>14</v>
+      </c>
       <c r="C397" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D397">
         <v>3</v>
@@ -5788,12 +7167,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>3960</v>
       </c>
+      <c r="B398" t="s">
+        <v>3</v>
+      </c>
       <c r="C398" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D398">
         <v>3</v>
@@ -5802,12 +7184,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>3970</v>
       </c>
+      <c r="B399" t="s">
+        <v>3</v>
+      </c>
       <c r="C399" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D399">
         <v>3</v>
@@ -5816,12 +7201,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>3980</v>
       </c>
+      <c r="B400" t="s">
+        <v>3</v>
+      </c>
       <c r="C400" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D400">
         <v>3</v>
@@ -5830,12 +7218,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>3990</v>
       </c>
+      <c r="B401" t="s">
+        <v>3</v>
+      </c>
       <c r="C401" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D401">
         <v>3</v>
@@ -5844,12 +7235,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>4000</v>
       </c>
+      <c r="B402" t="s">
+        <v>3</v>
+      </c>
       <c r="C402" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D402">
         <v>3</v>
@@ -5858,12 +7252,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>4010</v>
       </c>
+      <c r="B403" t="s">
+        <v>3</v>
+      </c>
       <c r="C403" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D403">
         <v>3</v>
@@ -5872,12 +7269,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>4020</v>
       </c>
+      <c r="B404" t="s">
+        <v>3</v>
+      </c>
       <c r="C404" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D404">
         <v>3</v>
@@ -5886,12 +7286,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>4030</v>
       </c>
+      <c r="B405" t="s">
+        <v>3</v>
+      </c>
       <c r="C405" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D405">
         <v>4</v>
@@ -5900,12 +7303,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>4040</v>
       </c>
+      <c r="B406" t="s">
+        <v>3</v>
+      </c>
       <c r="C406" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D406">
         <v>3</v>
@@ -5914,12 +7320,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>4050</v>
       </c>
+      <c r="B407" t="s">
+        <v>3</v>
+      </c>
       <c r="C407" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D407">
         <v>3</v>
@@ -5928,12 +7337,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>4060</v>
       </c>
+      <c r="B408" t="s">
+        <v>3</v>
+      </c>
       <c r="C408" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D408">
         <v>3</v>
@@ -5942,12 +7354,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>4070</v>
       </c>
+      <c r="B409" t="s">
+        <v>3</v>
+      </c>
       <c r="C409" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D409">
         <v>3</v>
@@ -5956,12 +7371,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>4080</v>
       </c>
+      <c r="B410" t="s">
+        <v>3</v>
+      </c>
       <c r="C410" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D410">
         <v>3</v>
@@ -5970,12 +7388,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>4090</v>
       </c>
+      <c r="B411" t="s">
+        <v>3</v>
+      </c>
       <c r="C411" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D411">
         <v>3</v>
@@ -5984,12 +7405,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>4100</v>
       </c>
+      <c r="B412" t="s">
+        <v>3</v>
+      </c>
       <c r="C412" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D412">
         <v>3</v>
@@ -5998,12 +7422,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>4110</v>
       </c>
+      <c r="B413" t="s">
+        <v>3</v>
+      </c>
       <c r="C413" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D413">
         <v>3</v>
@@ -6012,12 +7439,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>4120</v>
       </c>
+      <c r="B414" t="s">
+        <v>3</v>
+      </c>
       <c r="C414" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D414">
         <v>3</v>
@@ -6026,12 +7456,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>4130</v>
       </c>
+      <c r="B415" t="s">
+        <v>3</v>
+      </c>
       <c r="C415" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D415">
         <v>3</v>
@@ -6040,15 +7473,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>4140</v>
       </c>
       <c r="B416" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C416" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D416">
         <v>4</v>
@@ -6057,15 +7490,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>4150</v>
       </c>
       <c r="B417" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C417" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D417">
         <v>3</v>
@@ -6074,12 +7507,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>4160</v>
       </c>
+      <c r="B418" t="s">
+        <v>3</v>
+      </c>
       <c r="C418" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D418">
         <v>3</v>
@@ -6088,12 +7524,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>4170</v>
       </c>
+      <c r="B419" t="s">
+        <v>3</v>
+      </c>
       <c r="C419" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D419">
         <v>3</v>
@@ -6102,12 +7541,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>4180</v>
       </c>
+      <c r="B420" t="s">
+        <v>3</v>
+      </c>
       <c r="C420" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D420">
         <v>3</v>
@@ -6116,12 +7558,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>4190</v>
       </c>
+      <c r="B421" t="s">
+        <v>3</v>
+      </c>
       <c r="C421" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D421">
         <v>3</v>
@@ -6130,12 +7575,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>4200</v>
       </c>
+      <c r="B422" t="s">
+        <v>3</v>
+      </c>
       <c r="C422" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D422">
         <v>3</v>
@@ -6144,12 +7592,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>4210</v>
       </c>
+      <c r="B423" t="s">
+        <v>3</v>
+      </c>
       <c r="C423" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D423">
         <v>3</v>
@@ -6158,12 +7609,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>4220</v>
       </c>
+      <c r="B424" t="s">
+        <v>3</v>
+      </c>
       <c r="C424" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D424">
         <v>3</v>
@@ -6172,12 +7626,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>4230</v>
       </c>
+      <c r="B425" t="s">
+        <v>3</v>
+      </c>
       <c r="C425" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D425">
         <v>3</v>
@@ -6186,12 +7643,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>4240</v>
       </c>
+      <c r="B426" t="s">
+        <v>3</v>
+      </c>
       <c r="C426" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D426">
         <v>3</v>
@@ -6200,12 +7660,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <v>4250</v>
       </c>
+      <c r="B427" t="s">
+        <v>3</v>
+      </c>
       <c r="C427" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D427">
         <v>3</v>
@@ -6214,12 +7677,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>4260</v>
       </c>
+      <c r="B428" t="s">
+        <v>3</v>
+      </c>
       <c r="C428" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D428">
         <v>3</v>
@@ -6228,12 +7694,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>4270</v>
       </c>
+      <c r="B429" t="s">
+        <v>3</v>
+      </c>
       <c r="C429" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D429">
         <v>3</v>
@@ -6242,12 +7711,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>4280</v>
       </c>
+      <c r="B430" t="s">
+        <v>3</v>
+      </c>
       <c r="C430" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D430">
         <v>3</v>
@@ -6256,12 +7728,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>4290</v>
       </c>
+      <c r="B431" t="s">
+        <v>3</v>
+      </c>
       <c r="C431" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D431">
         <v>3</v>
@@ -6270,12 +7745,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <v>4300</v>
       </c>
+      <c r="B432" t="s">
+        <v>3</v>
+      </c>
       <c r="C432" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D432">
         <v>3</v>
@@ -6284,12 +7762,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
         <v>4310</v>
       </c>
+      <c r="B433" t="s">
+        <v>3</v>
+      </c>
       <c r="C433" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D433">
         <v>3</v>
@@ -6298,12 +7779,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>4320</v>
       </c>
+      <c r="B434" t="s">
+        <v>3</v>
+      </c>
       <c r="C434" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D434">
         <v>3</v>
@@ -6312,12 +7796,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>4330</v>
       </c>
+      <c r="B435" t="s">
+        <v>3</v>
+      </c>
       <c r="C435" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D435">
         <v>3</v>
@@ -6326,12 +7813,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <v>4340</v>
       </c>
+      <c r="B436" t="s">
+        <v>3</v>
+      </c>
       <c r="C436" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D436">
         <v>3</v>
@@ -6340,15 +7830,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>4350</v>
       </c>
       <c r="B437" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C437" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D437">
         <v>3</v>
@@ -6357,12 +7847,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>4360</v>
       </c>
+      <c r="B438" t="s">
+        <v>3</v>
+      </c>
       <c r="C438" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D438">
         <v>3</v>
@@ -6371,12 +7864,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <v>4370</v>
       </c>
+      <c r="B439" t="s">
+        <v>3</v>
+      </c>
       <c r="C439" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D439">
         <v>3</v>
@@ -6388,10 +7884,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Excel/7.xlsx
+++ b/Excel/7.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryprouty/Desktop/MUC-Project/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gopal\Documents\School\Classes\Graduate_Classes\UbiquitousComputing\MUC-Project\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B6A4CA-3980-4839-92B6-8B71869EA1C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="460" windowWidth="16080" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="5595" yWindow="1200" windowWidth="10770" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -503,20 +504,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F439"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145:E153"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="F326" sqref="F326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,7 +535,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -552,7 +553,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>10</v>
       </c>
@@ -570,7 +571,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>20</v>
       </c>
@@ -588,7 +589,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>30</v>
       </c>
@@ -606,7 +607,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>40</v>
       </c>
@@ -624,7 +625,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>50</v>
       </c>
@@ -642,7 +643,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>60</v>
       </c>
@@ -660,7 +661,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>70</v>
       </c>
@@ -678,7 +679,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>80</v>
       </c>
@@ -696,7 +697,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>90</v>
       </c>
@@ -714,7 +715,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>100</v>
       </c>
@@ -732,7 +733,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>110</v>
       </c>
@@ -750,7 +751,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>120</v>
       </c>
@@ -768,7 +769,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>130</v>
       </c>
@@ -786,7 +787,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>140</v>
       </c>
@@ -804,7 +805,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>150</v>
       </c>
@@ -822,7 +823,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>160</v>
       </c>
@@ -840,7 +841,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>170</v>
       </c>
@@ -858,7 +859,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>180</v>
       </c>
@@ -876,7 +877,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>190</v>
       </c>
@@ -894,7 +895,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>200</v>
       </c>
@@ -912,7 +913,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>210</v>
       </c>
@@ -930,7 +931,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>220</v>
       </c>
@@ -948,7 +949,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>230</v>
       </c>
@@ -966,7 +967,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>240</v>
       </c>
@@ -984,7 +985,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>250</v>
       </c>
@@ -1002,7 +1003,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>260</v>
       </c>
@@ -1020,7 +1021,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>270</v>
       </c>
@@ -1037,7 +1038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>280</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>290</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>300</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>310</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>320</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>330</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>340</v>
       </c>
@@ -1156,7 +1157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>350</v>
       </c>
@@ -1173,7 +1174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>360</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>370</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>380</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>390</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>400</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>410</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>420</v>
       </c>
@@ -1292,7 +1293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>430</v>
       </c>
@@ -1309,7 +1310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>440</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>450</v>
       </c>
@@ -1343,7 +1344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>460</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>470</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>480</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>490</v>
       </c>
@@ -1411,7 +1412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>500</v>
       </c>
@@ -1428,7 +1429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>510</v>
       </c>
@@ -1445,7 +1446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>520</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>530</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>540</v>
       </c>
@@ -1496,7 +1497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>550</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>560</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>570</v>
       </c>
@@ -1547,7 +1548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>580</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>590</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>600</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>610</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>620</v>
       </c>
@@ -1632,7 +1633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>630</v>
       </c>
@@ -1649,7 +1650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>640</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>650</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>660</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>670</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>680</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>690</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>700</v>
       </c>
@@ -1768,7 +1769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>710</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>720</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>730</v>
       </c>
@@ -1819,7 +1820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>740</v>
       </c>
@@ -1836,7 +1837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>750</v>
       </c>
@@ -1853,7 +1854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>760</v>
       </c>
@@ -1870,7 +1871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>770</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>780</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>790</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>800</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>810</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>820</v>
       </c>
@@ -1972,7 +1973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>830</v>
       </c>
@@ -1989,7 +1990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>840</v>
       </c>
@@ -2006,7 +2007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>850</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>860</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>870</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>880</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>890</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>900</v>
       </c>
@@ -2108,7 +2109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>910</v>
       </c>
@@ -2125,7 +2126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>920</v>
       </c>
@@ -2142,7 +2143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>930</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>940</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>950</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>960</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>970</v>
       </c>
@@ -2227,7 +2228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>980</v>
       </c>
@@ -2244,7 +2245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>990</v>
       </c>
@@ -2261,7 +2262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>1000</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>1010</v>
       </c>
@@ -2295,7 +2296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>1020</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>1030</v>
       </c>
@@ -2329,7 +2330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>1040</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>1050</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>1060</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>1070</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>1080</v>
       </c>
@@ -2414,7 +2415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>1090</v>
       </c>
@@ -2431,7 +2432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>1100</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>1110</v>
       </c>
@@ -2465,7 +2466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>1120</v>
       </c>
@@ -2482,7 +2483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>1130</v>
       </c>
@@ -2499,7 +2500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>1140</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>1150</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>1160</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>1170</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>1180</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>1190</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>1200</v>
       </c>
@@ -2618,7 +2619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>1210</v>
       </c>
@@ -2635,7 +2636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>1220</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>1230</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>1240</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>1250</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>1260</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>1270</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>1280</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>1290</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>1300</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>1310</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>1320</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>1330</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>1340</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>1350</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>1360</v>
       </c>
@@ -2890,7 +2891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>1370</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>1380</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>1390</v>
       </c>
@@ -2941,7 +2942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>1400</v>
       </c>
@@ -2958,7 +2959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>1410</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>1420</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>1430</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>1440</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>1450</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>1460</v>
       </c>
@@ -3060,7 +3061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>1470</v>
       </c>
@@ -3077,7 +3078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>1480</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>1490</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>1500</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>1510</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>1520</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>1530</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>1540</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>1550</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>1560</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>1570</v>
       </c>
@@ -3247,7 +3248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>1580</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>1590</v>
       </c>
@@ -3281,7 +3282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>1600</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>1610</v>
       </c>
@@ -3315,7 +3316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>1620</v>
       </c>
@@ -3332,7 +3333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>1630</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>1640</v>
       </c>
@@ -3366,7 +3367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>1650</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>1660</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>1670</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>1680</v>
       </c>
@@ -3434,7 +3435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>1690</v>
       </c>
@@ -3451,7 +3452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>1700</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>1710</v>
       </c>
@@ -3485,7 +3486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>1720</v>
       </c>
@@ -3502,7 +3503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>1730</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>1740</v>
       </c>
@@ -3536,7 +3537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>1750</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>1760</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>1770</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>1780</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>1790</v>
       </c>
@@ -3621,7 +3622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>1800</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>1810</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>1820</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>1830</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>1840</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>1850</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>1860</v>
       </c>
@@ -3740,7 +3741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>1870</v>
       </c>
@@ -3757,7 +3758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>1880</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>1890</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>1900</v>
       </c>
@@ -3808,7 +3809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>1910</v>
       </c>
@@ -3825,7 +3826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>1920</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>1930</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>1940</v>
       </c>
@@ -3876,7 +3877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>1950</v>
       </c>
@@ -3893,7 +3894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>1960</v>
       </c>
@@ -3910,7 +3911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>1970</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>1980</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>1990</v>
       </c>
@@ -3961,7 +3962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>2000</v>
       </c>
@@ -3978,7 +3979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>2010</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>2020</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>2030</v>
       </c>
@@ -4029,7 +4030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>2040</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>2050</v>
       </c>
@@ -4063,7 +4064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>2060</v>
       </c>
@@ -4080,7 +4081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>2070</v>
       </c>
@@ -4097,7 +4098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>2080</v>
       </c>
@@ -4114,7 +4115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>2090</v>
       </c>
@@ -4131,7 +4132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>2100</v>
       </c>
@@ -4148,7 +4149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>2110</v>
       </c>
@@ -4165,7 +4166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>2120</v>
       </c>
@@ -4182,7 +4183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>2130</v>
       </c>
@@ -4199,7 +4200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>2140</v>
       </c>
@@ -4216,7 +4217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>2150</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>2160</v>
       </c>
@@ -4250,7 +4251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>2170</v>
       </c>
@@ -4267,7 +4268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>2180</v>
       </c>
@@ -4284,7 +4285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>2190</v>
       </c>
@@ -4301,7 +4302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>2200</v>
       </c>
@@ -4318,7 +4319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>2210</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>2220</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>2230</v>
       </c>
@@ -4369,7 +4370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>2240</v>
       </c>
@@ -4386,7 +4387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>2250</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>2260</v>
       </c>
@@ -4420,7 +4421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>2270</v>
       </c>
@@ -4437,7 +4438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>2280</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>2290</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>2300</v>
       </c>
@@ -4488,7 +4489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>2310</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>2320</v>
       </c>
@@ -4522,7 +4523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>2330</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>2340</v>
       </c>
@@ -4556,7 +4557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>2350</v>
       </c>
@@ -4573,7 +4574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>2360</v>
       </c>
@@ -4590,7 +4591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>2370</v>
       </c>
@@ -4607,7 +4608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>2380</v>
       </c>
@@ -4624,7 +4625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>2390</v>
       </c>
@@ -4641,7 +4642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>2400</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>2410</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>2420</v>
       </c>
@@ -4692,7 +4693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>2430</v>
       </c>
@@ -4709,7 +4710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>2440</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>2450</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>2460</v>
       </c>
@@ -4760,7 +4761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>2470</v>
       </c>
@@ -4777,7 +4778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>2480</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>2490</v>
       </c>
@@ -4811,7 +4812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>2500</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>2510</v>
       </c>
@@ -4845,7 +4846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>2520</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>2530</v>
       </c>
@@ -4879,7 +4880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>2540</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>2550</v>
       </c>
@@ -4913,7 +4914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>2560</v>
       </c>
@@ -4930,7 +4931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>2570</v>
       </c>
@@ -4947,7 +4948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>2580</v>
       </c>
@@ -4964,7 +4965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>2590</v>
       </c>
@@ -4981,7 +4982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>2600</v>
       </c>
@@ -4998,7 +4999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>2610</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>2620</v>
       </c>
@@ -5032,7 +5033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>2630</v>
       </c>
@@ -5049,7 +5050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>2640</v>
       </c>
@@ -5066,7 +5067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>2650</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>2660</v>
       </c>
@@ -5100,7 +5101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>2670</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>2680</v>
       </c>
@@ -5134,7 +5135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>2690</v>
       </c>
@@ -5151,7 +5152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>2700</v>
       </c>
@@ -5168,7 +5169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>2710</v>
       </c>
@@ -5185,7 +5186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>2720</v>
       </c>
@@ -5202,7 +5203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>2730</v>
       </c>
@@ -5219,7 +5220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>2740</v>
       </c>
@@ -5236,7 +5237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>2750</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>2760</v>
       </c>
@@ -5270,7 +5271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>2770</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>2780</v>
       </c>
@@ -5304,7 +5305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>2790</v>
       </c>
@@ -5321,7 +5322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>2800</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>2810</v>
       </c>
@@ -5355,7 +5356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>2820</v>
       </c>
@@ -5372,7 +5373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>2830</v>
       </c>
@@ -5389,7 +5390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>2840</v>
       </c>
@@ -5406,7 +5407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>2850</v>
       </c>
@@ -5423,7 +5424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>2860</v>
       </c>
@@ -5440,7 +5441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>2870</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>2880</v>
       </c>
@@ -5474,7 +5475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>2890</v>
       </c>
@@ -5491,7 +5492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>2900</v>
       </c>
@@ -5508,7 +5509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>2910</v>
       </c>
@@ -5525,7 +5526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>2920</v>
       </c>
@@ -5542,7 +5543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>2930</v>
       </c>
@@ -5559,7 +5560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>2940</v>
       </c>
@@ -5576,7 +5577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>2950</v>
       </c>
@@ -5593,7 +5594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>2960</v>
       </c>
@@ -5610,7 +5611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>2970</v>
       </c>
@@ -5627,7 +5628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>2980</v>
       </c>
@@ -5644,7 +5645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>2990</v>
       </c>
@@ -5661,7 +5662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>3000</v>
       </c>
@@ -5678,7 +5679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>3010</v>
       </c>
@@ -5695,7 +5696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>3020</v>
       </c>
@@ -5712,7 +5713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>3030</v>
       </c>
@@ -5729,7 +5730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>3040</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>3050</v>
       </c>
@@ -5763,7 +5764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>3060</v>
       </c>
@@ -5773,8 +5774,14 @@
       <c r="C308" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D308">
+        <v>3</v>
+      </c>
+      <c r="E308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>3070</v>
       </c>
@@ -5784,8 +5791,14 @@
       <c r="C309" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D309">
+        <v>3</v>
+      </c>
+      <c r="E309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>3080</v>
       </c>
@@ -5795,8 +5808,14 @@
       <c r="C310" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D310">
+        <v>3</v>
+      </c>
+      <c r="E310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>3090</v>
       </c>
@@ -5806,8 +5825,14 @@
       <c r="C311" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D311">
+        <v>3</v>
+      </c>
+      <c r="E311">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>3100</v>
       </c>
@@ -5817,8 +5842,14 @@
       <c r="C312" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D312">
+        <v>3</v>
+      </c>
+      <c r="E312">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>3110</v>
       </c>
@@ -5828,8 +5859,14 @@
       <c r="C313" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D313">
+        <v>3</v>
+      </c>
+      <c r="E313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>3120</v>
       </c>
@@ -5839,8 +5876,14 @@
       <c r="C314" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D314">
+        <v>3</v>
+      </c>
+      <c r="E314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>3130</v>
       </c>
@@ -5850,8 +5893,14 @@
       <c r="C315" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D315">
+        <v>3</v>
+      </c>
+      <c r="E315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>3140</v>
       </c>
@@ -5861,8 +5910,14 @@
       <c r="C316" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D316">
+        <v>3</v>
+      </c>
+      <c r="E316">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>3150</v>
       </c>
@@ -5872,8 +5927,14 @@
       <c r="C317" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D317">
+        <v>3</v>
+      </c>
+      <c r="E317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>3160</v>
       </c>
@@ -5883,8 +5944,14 @@
       <c r="C318" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D318">
+        <v>3</v>
+      </c>
+      <c r="E318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>3170</v>
       </c>
@@ -5894,8 +5961,14 @@
       <c r="C319" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D319">
+        <v>3</v>
+      </c>
+      <c r="E319">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>3180</v>
       </c>
@@ -5905,8 +5978,14 @@
       <c r="C320" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D320">
+        <v>3</v>
+      </c>
+      <c r="E320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>3190</v>
       </c>
@@ -5916,8 +5995,14 @@
       <c r="C321" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D321">
+        <v>3</v>
+      </c>
+      <c r="E321">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>3200</v>
       </c>
@@ -5927,8 +6012,14 @@
       <c r="C322" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D322">
+        <v>3</v>
+      </c>
+      <c r="E322">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>3210</v>
       </c>
@@ -5938,8 +6029,14 @@
       <c r="C323" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D323">
+        <v>3</v>
+      </c>
+      <c r="E323">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>3220</v>
       </c>
@@ -5949,8 +6046,14 @@
       <c r="C324" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D324">
+        <v>3</v>
+      </c>
+      <c r="E324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>3230</v>
       </c>
@@ -5960,8 +6063,14 @@
       <c r="C325" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D325">
+        <v>3</v>
+      </c>
+      <c r="E325">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>3240</v>
       </c>
@@ -5971,8 +6080,14 @@
       <c r="C326" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D326">
+        <v>3</v>
+      </c>
+      <c r="E326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>3250</v>
       </c>
@@ -5982,8 +6097,14 @@
       <c r="C327" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D327">
+        <v>3</v>
+      </c>
+      <c r="E327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>3260</v>
       </c>
@@ -5993,8 +6114,14 @@
       <c r="C328" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D328">
+        <v>3</v>
+      </c>
+      <c r="E328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>3270</v>
       </c>
@@ -6011,7 +6138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>3280</v>
       </c>
@@ -6028,7 +6155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>3290</v>
       </c>
@@ -6045,7 +6172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>3300</v>
       </c>
@@ -6062,7 +6189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>3310</v>
       </c>
@@ -6079,7 +6206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>3320</v>
       </c>
@@ -6096,7 +6223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>3330</v>
       </c>
@@ -6113,7 +6240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>3340</v>
       </c>
@@ -6130,7 +6257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>3350</v>
       </c>
@@ -6147,7 +6274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>3360</v>
       </c>
@@ -6164,7 +6291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>3370</v>
       </c>
@@ -6181,7 +6308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>3380</v>
       </c>
@@ -6198,7 +6325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>3390</v>
       </c>
@@ -6215,7 +6342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>3400</v>
       </c>
@@ -6232,7 +6359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>3410</v>
       </c>
@@ -6249,7 +6376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>3420</v>
       </c>
@@ -6266,7 +6393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>3430</v>
       </c>
@@ -6283,7 +6410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>3440</v>
       </c>
@@ -6300,7 +6427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>3450</v>
       </c>
@@ -6317,7 +6444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>3460</v>
       </c>
@@ -6334,7 +6461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>3470</v>
       </c>
@@ -6351,7 +6478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>3480</v>
       </c>
@@ -6368,7 +6495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>3490</v>
       </c>
@@ -6385,7 +6512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>3500</v>
       </c>
@@ -6402,7 +6529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>3510</v>
       </c>
@@ -6419,7 +6546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>3520</v>
       </c>
@@ -6436,7 +6563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>3530</v>
       </c>
@@ -6453,7 +6580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>3540</v>
       </c>
@@ -6470,7 +6597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>3550</v>
       </c>
@@ -6487,7 +6614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>3560</v>
       </c>
@@ -6504,7 +6631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>3570</v>
       </c>
@@ -6521,7 +6648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>3580</v>
       </c>
@@ -6538,7 +6665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>3590</v>
       </c>
@@ -6555,7 +6682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>3600</v>
       </c>
@@ -6572,7 +6699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>3610</v>
       </c>
@@ -6589,7 +6716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>3620</v>
       </c>
@@ -6606,7 +6733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>3630</v>
       </c>
@@ -6623,7 +6750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>3640</v>
       </c>
@@ -6640,7 +6767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>3650</v>
       </c>
@@ -6657,7 +6784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>3660</v>
       </c>
@@ -6674,7 +6801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>3670</v>
       </c>
@@ -6691,7 +6818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>3680</v>
       </c>
@@ -6708,7 +6835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>3690</v>
       </c>
@@ -6725,7 +6852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>3700</v>
       </c>
@@ -6742,7 +6869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>3710</v>
       </c>
@@ -6759,7 +6886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>3720</v>
       </c>
@@ -6776,7 +6903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>3730</v>
       </c>
@@ -6793,7 +6920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>3740</v>
       </c>
@@ -6810,7 +6937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>3750</v>
       </c>
@@ -6827,7 +6954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>3760</v>
       </c>
@@ -6844,7 +6971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>3770</v>
       </c>
@@ -6861,7 +6988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>3780</v>
       </c>
@@ -6878,7 +7005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>3790</v>
       </c>
@@ -6895,7 +7022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>3800</v>
       </c>
@@ -6912,7 +7039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>3810</v>
       </c>
@@ -6929,7 +7056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>3820</v>
       </c>
@@ -6946,7 +7073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>3830</v>
       </c>
@@ -6963,7 +7090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>3840</v>
       </c>
@@ -6980,7 +7107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>3850</v>
       </c>
@@ -6997,7 +7124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>3860</v>
       </c>
@@ -7014,7 +7141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>3870</v>
       </c>
@@ -7031,7 +7158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>3880</v>
       </c>
@@ -7048,7 +7175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>3890</v>
       </c>
@@ -7065,7 +7192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>3900</v>
       </c>
@@ -7082,7 +7209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>3910</v>
       </c>
@@ -7099,7 +7226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>3920</v>
       </c>
@@ -7116,7 +7243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>3930</v>
       </c>
@@ -7133,7 +7260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>3940</v>
       </c>
@@ -7150,7 +7277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>3950</v>
       </c>
@@ -7167,7 +7294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>3960</v>
       </c>
@@ -7184,7 +7311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>3970</v>
       </c>
@@ -7201,7 +7328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>3980</v>
       </c>
@@ -7218,7 +7345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>3990</v>
       </c>
@@ -7235,7 +7362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>4000</v>
       </c>
@@ -7252,7 +7379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>4010</v>
       </c>
@@ -7269,7 +7396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>4020</v>
       </c>
@@ -7286,7 +7413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>4030</v>
       </c>
@@ -7303,7 +7430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>4040</v>
       </c>
@@ -7320,7 +7447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>4050</v>
       </c>
@@ -7337,7 +7464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>4060</v>
       </c>
@@ -7354,7 +7481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>4070</v>
       </c>
@@ -7371,7 +7498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>4080</v>
       </c>
@@ -7388,7 +7515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>4090</v>
       </c>
@@ -7405,7 +7532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>4100</v>
       </c>
@@ -7422,7 +7549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>4110</v>
       </c>
@@ -7439,7 +7566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>4120</v>
       </c>
@@ -7456,7 +7583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>4130</v>
       </c>
@@ -7473,7 +7600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>4140</v>
       </c>
@@ -7490,7 +7617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>4150</v>
       </c>
@@ -7507,7 +7634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>4160</v>
       </c>
@@ -7524,7 +7651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>4170</v>
       </c>
@@ -7541,7 +7668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>4180</v>
       </c>
@@ -7558,7 +7685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>4190</v>
       </c>
@@ -7575,7 +7702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>4200</v>
       </c>
@@ -7592,7 +7719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>4210</v>
       </c>
@@ -7609,7 +7736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>4220</v>
       </c>
@@ -7626,7 +7753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>4230</v>
       </c>
@@ -7643,7 +7770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>4240</v>
       </c>
@@ -7660,7 +7787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>4250</v>
       </c>
@@ -7677,7 +7804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>4260</v>
       </c>
@@ -7694,7 +7821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>4270</v>
       </c>
@@ -7711,7 +7838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>4280</v>
       </c>
@@ -7728,7 +7855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>4290</v>
       </c>
@@ -7745,7 +7872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>4300</v>
       </c>
@@ -7762,7 +7889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>4310</v>
       </c>
@@ -7779,7 +7906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>4320</v>
       </c>
@@ -7796,7 +7923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>4330</v>
       </c>
@@ -7813,7 +7940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>4340</v>
       </c>
@@ -7830,7 +7957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>4350</v>
       </c>
@@ -7847,7 +7974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>4360</v>
       </c>
@@ -7864,7 +7991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>4370</v>
       </c>
